--- a/results/105.Distribution/ClusterDistr.xlsx
+++ b/results/105.Distribution/ClusterDistr.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>11.28672745694022</v>
+        <v>11.26646403242148</v>
       </c>
     </row>
     <row r="6">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>24.10842734913303</v>
+        <v>24.12357083364882</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.2253579724716569</v>
+        <v>11.86423048920015</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.09815950920245399</v>
+        <v>6.539877300613497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.1301272984441301</v>
+        <v>10.14427157001414</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>11.16514690982776</v>
+        <v>10.09118541033435</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>12.36336223143611</v>
+        <v>5.314738032416133</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>8.40463390626183</v>
+        <v>2.725827212841675</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>11.86076344346982</v>
+        <v>0.02773636584266546</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="C21">
-        <v>6.552147239263804</v>
+        <v>0.0736196319018405</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C22">
-        <v>10.14427157001414</v>
+        <v>0.05091937765205092</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C23">
-        <v>10.21276595744681</v>
+        <v>2.715298885511651</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C24">
-        <v>5.352431209950999</v>
+        <v>0.7727101394647569</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>2.725827212841675</v>
+        <v>0.1665783296736579</v>
       </c>
     </row>
     <row r="26">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>16.1009603716673</v>
+        <v>9.021252990326943</v>
       </c>
     </row>
     <row r="27">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>12.03067484662577</v>
+        <v>10.12883435582822</v>
       </c>
     </row>
     <row r="28">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>10.82319660537482</v>
+        <v>8.916548797736917</v>
       </c>
     </row>
     <row r="29">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.851063829787234</v>
+        <v>0.790273556231003</v>
       </c>
     </row>
     <row r="30">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.603090840557859</v>
+        <v>0.5465510742555597</v>
       </c>
     </row>
     <row r="31">
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.1892935564473385</v>
+        <v>0.1741500719315514</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="C32">
-        <v>5.654751586173422</v>
+        <v>1.38335124640294</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C33">
-        <v>11.00613496932515</v>
+        <v>1.024539877300614</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C34">
-        <v>12.4016973125884</v>
+        <v>0.2489391796322489</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C35">
-        <v>12.78622087132725</v>
+        <v>0.060790273556231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="C36">
-        <v>30.11684885035809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C37">
-        <v>17.1197092450973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.7211455119093021</v>
+        <v>5.654751586173422</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.8834355828220859</v>
+        <v>11.00613496932515</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="C40">
-        <v>1.15983026874116</v>
+        <v>12.4016973125884</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="C41">
-        <v>1.742654508611955</v>
+        <v>12.78622087132725</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C42">
-        <v>10.45985676592537</v>
+        <v>29.96607614021862</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C43">
-        <v>11.13046111910351</v>
+        <v>17.04399182251836</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.08320909752799639</v>
+        <v>0.2392261553929896</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.1165644171779141</v>
+        <v>0.1104294478527607</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.0396039603960396</v>
+        <v>0.1414427157001414</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1062,13 +1062,13 @@
         </is>
       </c>
       <c r="C47">
-        <v>3.161094224924012</v>
+        <v>11.16514690982776</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="C48">
-        <v>4.862419901997739</v>
+        <v>12.38220882020354</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C49">
-        <v>1.022185204815628</v>
+        <v>8.40463390626183</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.7176784661789689</v>
+        <v>0.7246125576396353</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C51">
-        <v>2.184049079754601</v>
+        <v>0.9079754601226994</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C52">
-        <v>2.132956152758133</v>
+        <v>1.171145685997171</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="C53">
-        <v>37.00101317122594</v>
+        <v>1.742654508611955</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C54">
-        <v>8.763663776856388</v>
+        <v>10.62947606483227</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C55">
-        <v>30.07496024835315</v>
+        <v>11.22132202619823</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="C56">
-        <v>1.411087612245606</v>
+        <v>7.058905106958361</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C57">
-        <v>1.098159509202454</v>
+        <v>1.865030674846626</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.2998585572842998</v>
+        <v>1.895332390381895</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C59">
-        <v>2.776089159067883</v>
+        <v>0.08105369807497467</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.7727101394647569</v>
+        <v>0.01884658876743309</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.1665783296736579</v>
+        <v>0.007571742257893541</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C62">
-        <v>16.38179107582429</v>
+        <v>0.08320909752799639</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C63">
-        <v>19.73006134969325</v>
+        <v>0.1165644171779141</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C64">
-        <v>14.30834512022631</v>
+        <v>0.0396039603960396</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>3.161094224924012</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>4.862419901997739</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1.022185204815628</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Steroidogenic</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C68">
-        <v>23.02465069514267</v>
+        <v>3.227819574940193</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Steroidogenic</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="C69">
-        <v>16.42944785276073</v>
+        <v>0.4785276073619632</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Steroidogenic</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C70">
-        <v>17.4031117397454</v>
+        <v>0.5770862800565771</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Steroidogenic</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Steroidogenic</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1443,7 +1443,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Steroidogenic</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1458,7 +1458,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>23.74232916132164</v>
+        <v>0.5651284540443089</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>29.73006134969325</v>
+        <v>1.754601226993865</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C76">
-        <v>31.05516265912306</v>
+        <v>1.917963224893918</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.060790273556231</v>
+        <v>37.1225937183384</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1527,22 +1527,292 @@
         </is>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>8.801356954391256</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>Tcell</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>30.05224502157947</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>9.742398502236245</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>19.19631901840491</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>19.58132956152758</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>0.007571742257893541</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>20.37236071143779</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>15.6319018404908</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>17.55586987270156</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>ZR</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>29.95874215580903</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>31.02453987730062</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>25.25601131541726</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>0.060790273556231</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>T4</t>
         </is>
       </c>
-      <c r="C79">
-        <v>0.007571742257893541</v>
+      <c r="C97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1602,7 +1872,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>10.03070624360287</v>
+        <v>10.02644148754691</v>
       </c>
     </row>
     <row r="4">
@@ -1632,13 +1902,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>16.69651995905834</v>
+        <v>16.70504947117025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1647,13 +1917,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.1655576427138718</v>
+        <v>9.998726479671431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1662,13 +1932,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>9.88143978164449</v>
+        <v>4.861821903787104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1677,13 +1947,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>10.00031838008214</v>
+        <v>0.04616511191059888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1692,7 +1962,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>4.895939952234732</v>
+        <v>0.840156943022859</v>
       </c>
     </row>
     <row r="10">
@@ -1707,7 +1977,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>13.55980769843039</v>
+        <v>9.279187494030374</v>
       </c>
     </row>
     <row r="11">
@@ -1722,13 +1992,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.4222108495394064</v>
+        <v>0.3880928010917776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1737,13 +2007,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>8.941704606959789</v>
+        <v>0.9710592505332867</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1752,13 +2022,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>19.14875469123166</v>
+        <v>0.0127942681678608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1767,13 +2037,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.8866885287656404</v>
+        <v>8.941704606959789</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1782,13 +2052,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>9.002900034118049</v>
+        <v>19.0719890822245</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1797,13 +2067,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.0795950205355153</v>
+        <v>0.1782928459995543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1812,13 +2082,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>2.341351074718526</v>
+        <v>9.885704537700443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1827,13 +2097,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>1.496386386067688</v>
+        <v>0.8978318316406125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1842,13 +2112,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>26.71016717843739</v>
+        <v>9.092459911293075</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1857,13 +2127,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>1.017224362443885</v>
+        <v>4.258333598650069</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1872,13 +2142,13 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.8529512111907199</v>
+        <v>0.0255885363357216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1887,13 +2157,13 @@
         </is>
       </c>
       <c r="C22">
-        <v>16.6671973001369</v>
+        <v>0.0795950205355153</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1902,13 +2172,13 @@
         </is>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.341351074718526</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Steroidogenic</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1917,13 +2187,13 @@
         </is>
       </c>
       <c r="C24">
-        <v>19.73160559075424</v>
+        <v>1.76860135629915</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Steroidogenic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1938,7 +2208,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1947,22 +2217,112 @@
         </is>
       </c>
       <c r="C26">
-        <v>27.35362475723519</v>
+        <v>1.254417523639721</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Tcell</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>26.73149095871716</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>14.96386386067688</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>0.004264756055953599</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>18.3498360342577</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>tumor</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>ZR</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>28.91209525932058</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>tumor</t>
         </is>
       </c>
-      <c r="C27">
-        <v>0.0170590242238144</v>
+      <c r="C33">
+        <v>0.0127942681678608</v>
       </c>
     </row>
   </sheetData>

--- a/results/105.Distribution/ClusterDistr.xlsx
+++ b/results/105.Distribution/ClusterDistr.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,11 +428,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C5">
-        <v>11.26646403242148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -443,11 +443,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C6">
-        <v>21.25895212966453</v>
+        <v>11.32725430597771</v>
       </c>
     </row>
     <row r="7">
@@ -458,41 +458,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C7">
-        <v>5.050352086014992</v>
+        <v>21.31549189596683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bcell</t>
+          <t>Adipo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.006934091460666366</v>
+        <v>5.027636859241311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bcell</t>
+          <t>Adipo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.03067484662576687</v>
+        <v>7.288365776369398</v>
       </c>
     </row>
     <row r="10">
@@ -503,11 +503,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.1018387553041018</v>
+        <v>0.006934091460666366</v>
       </c>
     </row>
     <row r="11">
@@ -518,11 +518,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C11">
-        <v>8.956433637284702</v>
+        <v>0.0245398773006135</v>
       </c>
     </row>
     <row r="12">
@@ -533,11 +533,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C12">
-        <v>5.446664153788165</v>
+        <v>0.1131541725601131</v>
       </c>
     </row>
     <row r="13">
@@ -548,71 +548,71 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C13">
-        <v>24.12357083364882</v>
+        <v>0.06483682731791658</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Bcell</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C14">
-        <v>11.86423048920015</v>
+        <v>8.328267477203648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Bcell</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C15">
-        <v>6.539877300613497</v>
+        <v>4.560874481718809</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Bcell</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C16">
-        <v>10.14427157001414</v>
+        <v>23.82070114333308</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Endo</t>
+          <t>Bcell</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C17">
-        <v>10.09118541033435</v>
+        <v>12.58488003621548</v>
       </c>
     </row>
     <row r="18">
@@ -623,11 +623,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C18">
-        <v>5.314738032416133</v>
+        <v>11.87809867212149</v>
       </c>
     </row>
     <row r="19">
@@ -638,107 +638,107 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C19">
-        <v>2.725827212841675</v>
+        <v>6.515337423312883</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Eryth</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.02773636584266546</v>
+        <v>10.14992927864215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Eryth</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.0736196319018405</v>
+        <v>10.10373892370867</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Eryth</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.05091937765205092</v>
+        <v>10.0709219858156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eryth</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C23">
-        <v>2.715298885511651</v>
+        <v>5.653976630229929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Eryth</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.7727101394647569</v>
+        <v>2.763685924131142</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Eryth</t>
+          <t>Endo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.1665783296736579</v>
+        <v>5.36441828881847</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fib</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="C26">
-        <v>9.021252990326943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fib</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="C27">
-        <v>10.12883435582822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fib</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -777,328 +777,328 @@
         </is>
       </c>
       <c r="C28">
-        <v>8.916548797736917</v>
+        <v>0.005657708628005658</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fib</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.790273556231003</v>
+        <v>0.01080613788631943</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fib</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.5465510742555597</v>
+        <v>2.573454913880446</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fib</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.1741500719315514</v>
+        <v>0.7727101394647569</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C32">
-        <v>1.38335124640294</v>
+        <v>0.1665783296736579</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>Eryth</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C33">
-        <v>1.024539877300614</v>
+        <v>4.164780443639656</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>Fib</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.2489391796322489</v>
+        <v>9.492771209652256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>Fib</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.060790273556231</v>
+        <v>10.63803680981595</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>Fib</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>9.47100424328147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LEC</t>
+          <t>Fib</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4.92759887616166</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>Fib</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C38">
-        <v>5.654751586173422</v>
+        <v>0.9726443768996961</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>Fib</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C39">
-        <v>11.00613496932515</v>
+        <v>0.8480964945344892</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>Fib</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C40">
-        <v>12.4016973125884</v>
+        <v>0.2877262057999546</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>Fib</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C41">
-        <v>12.78622087132725</v>
+        <v>0.2037120869171571</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C42">
-        <v>29.96607614021862</v>
+        <v>1.386818292133273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C43">
-        <v>17.04399182251836</v>
+        <v>1.01840490797546</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.2392261553929896</v>
+        <v>0.2489391796322489</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.1104294478527607</v>
+        <v>0.01080613788631943</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.1414427157001414</v>
+        <v>0.060790273556231</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C47">
-        <v>11.16514690982776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C48">
-        <v>12.38220882020354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>LEC</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C49">
-        <v>8.40463390626183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.7246125576396353</v>
+        <v>5.432860659432098</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.9079754601226994</v>
+        <v>10.58282208588957</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1137,328 +1137,328 @@
         </is>
       </c>
       <c r="C52">
-        <v>1.171145685997171</v>
+        <v>11.98868458274399</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C53">
-        <v>1.742654508611955</v>
+        <v>5.11130322022909</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C54">
-        <v>10.62947606483227</v>
+        <v>12.88753799392097</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C55">
-        <v>11.22132202619823</v>
+        <v>30.36185450433472</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C56">
-        <v>7.058905106958361</v>
+        <v>17.1121375028394</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Mac/Granul</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C57">
-        <v>1.865030674846626</v>
+        <v>14.68990493435944</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C58">
-        <v>1.895332390381895</v>
+        <v>1.712720590784592</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.08105369807497467</v>
+        <v>0.1717791411042945</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.01884658876743309</v>
+        <v>0.1753889674681754</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.007571742257893541</v>
+        <v>0.4970823427706937</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.08320909752799639</v>
+        <v>11.00303951367781</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.1165644171779141</v>
+        <v>11.83565774594798</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.0396039603960396</v>
+        <v>8.162338154009237</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C65">
-        <v>3.161094224924012</v>
+        <v>5.885015844273427</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C66">
-        <v>4.862419901997739</v>
+        <v>0.8320909752799639</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Plasma</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C67">
-        <v>1.022185204815628</v>
+        <v>1.006134969325153</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Steroidogenic</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C68">
-        <v>3.227819574940193</v>
+        <v>1.256011315417256</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Steroidogenic</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.4785276073619632</v>
+        <v>8.115409552625891</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Steroidogenic</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.5770862800565771</v>
+        <v>1.783181357649443</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Steroidogenic</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>10.6483226535997</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Steroidogenic</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>11.07745892329825</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Steroidogenic</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>14.12403802625622</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>0.5651284540443089</v>
+        <v>5.4016572478591</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>1.754601226993865</v>
+        <v>1.779141104294478</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1497,322 +1497,682 @@
         </is>
       </c>
       <c r="C76">
-        <v>1.917963224893918</v>
+        <v>1.736916548797737</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C77">
-        <v>37.1225937183384</v>
+        <v>0.6915928247244435</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C78">
-        <v>8.801356954391256</v>
+        <v>0.02026342451874367</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C79">
-        <v>30.05224502157947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C80">
-        <v>9.742398502236245</v>
+        <v>0.007571742257893541</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C81">
-        <v>19.19631901840491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C82">
-        <v>19.58132956152758</v>
+        <v>0.08320909752799639</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.1165644171779141</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0396039603960396</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.007571742257893541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C86">
-        <v>20.37236071143779</v>
+        <v>3.161094224924012</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C87">
-        <v>15.6319018404908</v>
+        <v>4.900113079532605</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C88">
-        <v>17.55586987270156</v>
+        <v>1.029756947073522</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Plasma</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>2.354006337709371</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>N1</t>
         </is>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.5755295912353084</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>N2</t>
         </is>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1.809815950920245</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>N4</t>
         </is>
       </c>
       <c r="C92">
-        <v>29.95874215580903</v>
+        <v>1.934936350777935</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="C93">
-        <v>31.02453987730062</v>
+        <v>1.069807650745624</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>N4</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C94">
-        <v>25.25601131541726</v>
+        <v>37.75075987841945</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.060790273556231</v>
+        <v>9.102902374670185</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ZR</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>30.53683652608465</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>Tcell</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>T7</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>32.59393390674514</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>40.18652706029192</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>50.76073619631902</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>44.87694483734088</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>N7</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>50.73481737626972</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>0.060790273556231</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ZF</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>T7</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>0.04526935264825713</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>22.3901813264917</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>12.82208588957055</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>16.06223479490806</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>N7</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>6.05143721633888</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ZG</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>T7</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>ZR</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>0.5512602711229762</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>2.644171779141104</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>1.940594059405941</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>N7</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>12.61076291333477</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>T4</t>
         </is>
       </c>
-      <c r="C97">
-        <v>0</v>
+      <c r="C120">
+        <v>0.007571742257893541</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ZR</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>T7</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>0.7016749660479855</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +2182,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1857,7 +2217,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.06049221560699163</v>
+        <v>0.05272505272505273</v>
       </c>
     </row>
     <row r="3">
@@ -1872,7 +2232,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>10.02644148754691</v>
+        <v>9.603100552644801</v>
       </c>
     </row>
     <row r="4">
@@ -1887,7 +2247,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.03979751026775765</v>
+        <v>0.0444000444000444</v>
       </c>
     </row>
     <row r="5">
@@ -1902,7 +2262,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>16.70504947117025</v>
+        <v>15.62836431493576</v>
       </c>
     </row>
     <row r="6">
@@ -1917,7 +2277,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>9.998726479671431</v>
+        <v>10.01359751359751</v>
       </c>
     </row>
     <row r="7">
@@ -1932,7 +2292,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>4.861821903787104</v>
+        <v>5.020455034809445</v>
       </c>
     </row>
     <row r="8">
@@ -1947,7 +2307,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.04616511191059888</v>
+        <v>0.002775002775002775</v>
       </c>
     </row>
     <row r="9">
@@ -1962,7 +2322,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.840156943022859</v>
+        <v>1.342137371707457</v>
       </c>
     </row>
     <row r="10">
@@ -1977,7 +2337,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>9.279187494030374</v>
+        <v>9.16028416028416</v>
       </c>
     </row>
     <row r="11">
@@ -1992,7 +2352,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.3880928010917776</v>
+        <v>0.5024043637407594</v>
       </c>
     </row>
     <row r="12">
@@ -2007,7 +2367,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.9710592505332867</v>
+        <v>0.8477633477633477</v>
       </c>
     </row>
     <row r="13">
@@ -2022,7 +2382,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.0127942681678608</v>
+        <v>0.01076580779444484</v>
       </c>
     </row>
     <row r="14">
@@ -2037,7 +2397,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>8.941704606959789</v>
+        <v>8.164058164058163</v>
       </c>
     </row>
     <row r="15">
@@ -2052,7 +2412,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>19.0719890822245</v>
+        <v>18.50283499605254</v>
       </c>
     </row>
     <row r="16">
@@ -2067,7 +2427,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.1782928459995543</v>
+        <v>0.8311133311133311</v>
       </c>
     </row>
     <row r="17">
@@ -2082,7 +2442,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>9.885704537700443</v>
+        <v>9.003803918754038</v>
       </c>
     </row>
     <row r="18">
@@ -2097,7 +2457,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.8978318316406125</v>
+        <v>1.910589410589411</v>
       </c>
     </row>
     <row r="19">
@@ -2112,7 +2472,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>9.092459911293075</v>
+        <v>9.83277111892629</v>
       </c>
     </row>
     <row r="20">
@@ -2127,7 +2487,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>4.258333598650069</v>
+        <v>3.078865578865579</v>
       </c>
     </row>
     <row r="21">
@@ -2142,7 +2502,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.0255885363357216</v>
+        <v>0.007177205196296562</v>
       </c>
     </row>
     <row r="22">
@@ -2157,7 +2517,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.0795950205355153</v>
+        <v>0.06937506937506938</v>
       </c>
     </row>
     <row r="23">
@@ -2172,13 +2532,13 @@
         </is>
       </c>
       <c r="C23">
-        <v>2.341351074718526</v>
+        <v>2.354123304385273</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Steroidogenic</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2187,13 +2547,13 @@
         </is>
       </c>
       <c r="C24">
-        <v>1.76860135629915</v>
+        <v>1.251526251526252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Steroidogenic</t>
+          <t>Tcell</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2202,13 +2562,13 @@
         </is>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>28.05928371492141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>ZF</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2217,13 +2577,13 @@
         </is>
       </c>
       <c r="C26">
-        <v>1.254417523639721</v>
+        <v>45.08269508269508</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tcell</t>
+          <t>ZF</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2232,13 +2592,13 @@
         </is>
       </c>
       <c r="C27">
-        <v>26.73149095871716</v>
+        <v>0.01794301299074141</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>ZG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2247,13 +2607,13 @@
         </is>
       </c>
       <c r="C28">
-        <v>14.96386386067688</v>
+        <v>16.57647907647908</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ZF</t>
+          <t>ZG</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2262,13 +2622,13 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.004264756055953599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>ZR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2277,13 +2637,13 @@
         </is>
       </c>
       <c r="C30">
-        <v>18.3498360342577</v>
+        <v>2.913752913752914</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ZG</t>
+          <t>ZR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2292,37 +2652,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ZR</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>28.91209525932058</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ZR</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>tumor</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>0.0127942681678608</v>
+        <v>0.114835283140745</v>
       </c>
     </row>
   </sheetData>

--- a/results/105.Distribution/ClusterDistr.xlsx
+++ b/results/105.Distribution/ClusterDistr.xlsx
@@ -387,7 +387,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.06934091460666367</v>
+        <v>0.05277840609213601</v>
       </c>
     </row>
     <row r="3">
@@ -402,7 +402,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.1104294478527607</v>
+        <v>0.1124561751670305</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>11.32725430597771</v>
+        <v>10.5708704145865</v>
       </c>
     </row>
     <row r="7">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>21.31549189596683</v>
+        <v>20.59238363892807</v>
       </c>
     </row>
     <row r="8">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>5.027636859241311</v>
+        <v>4.775120398334829</v>
       </c>
     </row>
     <row r="9">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>7.288365776369398</v>
+        <v>7.12375395088743</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.006934091460666366</v>
+        <v>0.007539772298876574</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.0245398773006135</v>
+        <v>0.03307534563736191</v>
       </c>
     </row>
     <row r="12">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.1131541725601131</v>
+        <v>0.1035385833485596</v>
       </c>
     </row>
     <row r="13">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.06483682731791658</v>
+        <v>0.08130081300813008</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>8.328267477203648</v>
+        <v>8.421966572606902</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>4.560874481718809</v>
+        <v>5.702196252266774</v>
       </c>
     </row>
     <row r="16">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>23.82070114333308</v>
+        <v>24.09599216390499</v>
       </c>
     </row>
     <row r="17">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>12.58488003621548</v>
+        <v>13.90712375395089</v>
       </c>
     </row>
     <row r="18">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>11.87809867212149</v>
+        <v>11.66402774636206</v>
       </c>
     </row>
     <row r="19">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>6.515337423312883</v>
+        <v>6.337236224118542</v>
       </c>
     </row>
     <row r="20">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>10.14992927864215</v>
+        <v>9.933613496558864</v>
       </c>
     </row>
     <row r="21">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>10.10373892370867</v>
+        <v>9.651567944250871</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>10.0709219858156</v>
+        <v>10.09333622747992</v>
       </c>
     </row>
     <row r="23">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>5.653976630229929</v>
+        <v>4.775337497481362</v>
       </c>
     </row>
     <row r="24">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2.763685924131142</v>
+        <v>2.571218676026447</v>
       </c>
     </row>
     <row r="25">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>5.36441828881847</v>
+        <v>4.862630683199611</v>
       </c>
     </row>
     <row r="26">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.006615069127472382</v>
       </c>
     </row>
     <row r="28">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.005657708628005658</v>
+        <v>0.006090504902856447</v>
       </c>
     </row>
     <row r="29">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.01080613788631943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>2.573454913880446</v>
+        <v>2.344258736705014</v>
       </c>
     </row>
     <row r="31">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.7727101394647569</v>
+        <v>0.7656659278662099</v>
       </c>
     </row>
     <row r="32">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.1665783296736579</v>
+        <v>0.1632519794302506</v>
       </c>
     </row>
     <row r="33">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>4.164780443639656</v>
+        <v>4.230488694383662</v>
       </c>
     </row>
     <row r="34">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>9.492771209652256</v>
+        <v>8.580260876121541</v>
       </c>
     </row>
     <row r="35">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>10.63803680981595</v>
+        <v>9.922603691208574</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>9.47100424328147</v>
+        <v>8.569340398319021</v>
       </c>
     </row>
     <row r="37">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>4.92759887616166</v>
+        <v>4.866434378629501</v>
       </c>
     </row>
     <row r="38">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.9726443768996961</v>
+        <v>0.8682439765574126</v>
       </c>
     </row>
     <row r="39">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.8480964945344892</v>
+        <v>0.5440257908523071</v>
       </c>
     </row>
     <row r="40">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.2877262057999546</v>
+        <v>0.1306015835442005</v>
       </c>
     </row>
     <row r="41">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.2037120869171571</v>
+        <v>0.1458789204959883</v>
       </c>
     </row>
     <row r="42">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>1.386818292133273</v>
+        <v>1.157355047877554</v>
       </c>
     </row>
     <row r="43">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>1.01840490797546</v>
+        <v>0.9128795395911887</v>
       </c>
     </row>
     <row r="44">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.2489391796322489</v>
+        <v>0.2375296912114014</v>
       </c>
     </row>
     <row r="45">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.01080613788631943</v>
+        <v>0.0116144018583043</v>
       </c>
     </row>
     <row r="46">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.060790273556231</v>
+        <v>0.1085304970696766</v>
       </c>
     </row>
     <row r="47">
@@ -1098,7 +1098,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C50">
-        <v>5.432860659432098</v>
+        <v>0.5013948578752921</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C51">
-        <v>10.58282208588957</v>
+        <v>0.2910630416087848</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C52">
-        <v>11.98868458274399</v>
+        <v>0.341068274559961</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="C53">
-        <v>5.11130322022909</v>
+        <v>0.7549361207897793</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C54">
-        <v>12.88753799392097</v>
+        <v>11.20034729759062</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C55">
-        <v>30.36185450433472</v>
+        <v>12.19020753576466</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="C56">
-        <v>17.1121375028394</v>
+        <v>8.040159986939841</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C57">
-        <v>14.68990493435944</v>
+        <v>5.908096280087527</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C58">
-        <v>1.712720590784592</v>
+        <v>1.134735730980924</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1242,13 +1242,13 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.1717791411042945</v>
+        <v>3.532446914070252</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.1753889674681754</v>
+        <v>3.039161946525367</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.4970823427706937</v>
+        <v>21.24274099883856</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1287,13 +1287,13 @@
         </is>
       </c>
       <c r="C62">
-        <v>11.00303951367781</v>
+        <v>1.606251356631213</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C63">
-        <v>11.83565774594798</v>
+        <v>11.14245416078984</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="C64">
-        <v>8.162338154009237</v>
+        <v>10.49710227736511</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C65">
-        <v>5.885015844273427</v>
+        <v>14.32044736202285</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C66">
-        <v>0.8320909752799639</v>
+        <v>6.891351881173189</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C67">
-        <v>1.006134969325153</v>
+        <v>1.825759079182377</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C68">
-        <v>1.256011315417256</v>
+        <v>1.796698946342652</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1392,13 +1392,13 @@
         </is>
       </c>
       <c r="C69">
-        <v>8.115409552625891</v>
+        <v>0.7200929152148664</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C70">
-        <v>1.783181357649443</v>
+        <v>0.04341219882787063</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C71">
-        <v>10.6483226535997</v>
+        <v>0.02014910336490026</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1437,13 +1437,13 @@
         </is>
       </c>
       <c r="C72">
-        <v>11.07745892329825</v>
+        <v>0.03265039588605012</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C73">
-        <v>14.12403802625622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Myeloid</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="C74">
-        <v>5.4016572478591</v>
+        <v>4.987559375706853</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Myeloid</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C75">
-        <v>1.779141104294478</v>
+        <v>8.844347423430575</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Myeloid</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C76">
-        <v>1.736916548797737</v>
+        <v>10.5852975211645</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Myeloid</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.6915928247244435</v>
+        <v>4.912891986062718</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Myeloid</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.02026342451874367</v>
+        <v>12.63294985891035</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Myeloid</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>30.12290953052589</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Myeloid</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.007571742257893541</v>
+        <v>16.66802709982858</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Myeloid</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>14.56357889618283</v>
       </c>
     </row>
     <row r="82">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.08320909752799639</v>
+        <v>0.0565482922415743</v>
       </c>
     </row>
     <row r="83">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>0.1165644171779141</v>
+        <v>0.1190712442945029</v>
       </c>
     </row>
     <row r="84">
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>0.0396039603960396</v>
+        <v>0.03045252451428223</v>
       </c>
     </row>
     <row r="85">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>3.161094224924012</v>
+        <v>3.234208812676362</v>
       </c>
     </row>
     <row r="87">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>4.900113079532605</v>
+        <v>4.976828531130365</v>
       </c>
     </row>
     <row r="88">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>1.029756947073522</v>
+        <v>1.020324871439066</v>
       </c>
     </row>
     <row r="89">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>2.354006337709371</v>
+        <v>2.309749574519815</v>
       </c>
     </row>
     <row r="90">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.5755295912353084</v>
+        <v>0.7011988237955213</v>
       </c>
     </row>
     <row r="91">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>1.809815950920245</v>
+        <v>1.977905669114242</v>
       </c>
     </row>
     <row r="92">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>1.934936350777935</v>
+        <v>2.119495706194043</v>
       </c>
     </row>
     <row r="93">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>1.069807650745624</v>
+        <v>1.068524970963995</v>
       </c>
     </row>
     <row r="94">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>37.75075987841945</v>
+        <v>38.83221185153028</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>9.102902374670185</v>
+        <v>9.16784203102962</v>
       </c>
     </row>
     <row r="96">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>30.53683652608465</v>
+        <v>32.00555056730063</v>
       </c>
     </row>
     <row r="97">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>32.59393390674514</v>
+        <v>32.57962557743739</v>
       </c>
     </row>
     <row r="98">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>40.18652706029192</v>
+        <v>28.91502676619166</v>
       </c>
     </row>
     <row r="99">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>50.76073619631902</v>
+        <v>31.29589204207184</v>
       </c>
     </row>
     <row r="100">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>44.87694483734088</v>
+        <v>24.05140386138011</v>
       </c>
     </row>
     <row r="101">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>50.73481737626972</v>
+        <v>17.42160278745645</v>
       </c>
     </row>
     <row r="102">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.060790273556231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.04526935264825713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>22.3901813264917</v>
+        <v>21.67307547312071</v>
       </c>
     </row>
     <row r="107">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>12.82208588957055</v>
+        <v>12.54878613481511</v>
       </c>
     </row>
     <row r="108">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>16.06223479490806</v>
+        <v>15.29325781107254</v>
       </c>
     </row>
     <row r="109">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>6.05143721633888</v>
+        <v>4.924506387921022</v>
       </c>
     </row>
     <row r="110">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>0.5512602711229762</v>
+        <v>13.67714695016211</v>
       </c>
     </row>
     <row r="115">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>2.644171779141104</v>
+        <v>22.23986240656215</v>
       </c>
     </row>
     <row r="116">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>1.940594059405941</v>
+        <v>23.89305073390584</v>
       </c>
     </row>
     <row r="117">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>12.61076291333477</v>
+        <v>34.34378629500581</v>
       </c>
     </row>
     <row r="118">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.04341219882787063</v>
       </c>
     </row>
     <row r="119">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.007571742257893541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.7016749660479855</v>
+        <v>0.04862630683199611</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.05272505272505273</v>
+        <v>0.04649628029757619</v>
       </c>
     </row>
     <row r="3">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>9.603100552644801</v>
+        <v>9.204133569831109</v>
       </c>
     </row>
     <row r="4">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.0444000444000444</v>
+        <v>0.04649628029757619</v>
       </c>
     </row>
     <row r="5">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>15.62836431493576</v>
+        <v>16.17567671782216</v>
       </c>
     </row>
     <row r="6">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>10.01359751359751</v>
+        <v>9.770218382529398</v>
       </c>
     </row>
     <row r="7">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>5.020455034809445</v>
+        <v>4.692681422071412</v>
       </c>
     </row>
     <row r="8">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.002775002775002775</v>
+        <v>0.002999760019198464</v>
       </c>
     </row>
     <row r="9">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>1.342137371707457</v>
+        <v>1.311020282254955</v>
       </c>
     </row>
     <row r="10">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>9.16028416028416</v>
+        <v>8.402327813774898</v>
       </c>
     </row>
     <row r="11">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.5024043637407594</v>
+        <v>0.3431788385902676</v>
       </c>
     </row>
     <row r="12">
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.8477633477633477</v>
+        <v>0.7274418046556276</v>
       </c>
     </row>
     <row r="13">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.01076580779444484</v>
+        <v>0.0192797100331611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>8.164058164058163</v>
+        <v>0.4469642428605712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mac/Granul</t>
+          <t>mCAF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2412,13 +2412,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>18.50283499605254</v>
+        <v>9.057607773579086</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.8311133311133311</v>
+        <v>4.744120470362371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mCAF</t>
+          <t>Med</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>9.003803918754038</v>
+        <v>9.647566900593816</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>1.910589410589411</v>
+        <v>3.69120470362371</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Med</t>
+          <t>MSC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>9.83277111892629</v>
+        <v>0.02699159404642554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Myeloid</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>3.078865578865579</v>
+        <v>7.230921526277898</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MSC</t>
+          <t>Myeloid</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.007177205196296562</v>
+        <v>18.19233438729081</v>
       </c>
     </row>
     <row r="22">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.06937506937506938</v>
+        <v>0.05699544036477082</v>
       </c>
     </row>
     <row r="23">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>2.354123304385273</v>
+        <v>2.375260276085448</v>
       </c>
     </row>
     <row r="24">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>1.251526251526252</v>
+        <v>1.38738900887929</v>
       </c>
     </row>
     <row r="25">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>28.05928371492141</v>
+        <v>28.93884475977481</v>
       </c>
     </row>
     <row r="26">
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>45.08269508269508</v>
+        <v>26.77285817134629</v>
       </c>
     </row>
     <row r="27">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.01794301299074141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>16.57647907647908</v>
+        <v>15.87023038156947</v>
       </c>
     </row>
     <row r="29">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>2.913752913752914</v>
+        <v>20.80333573314135</v>
       </c>
     </row>
     <row r="31">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.114835283140745</v>
+        <v>0.01542376802652888</v>
       </c>
     </row>
   </sheetData>
